--- a/data/trans_camb/P11_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,23</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,65</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>8,25</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,68</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-2,31</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7,73</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 0,78</t>
+          <t>-11,56; 4,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 5,68</t>
+          <t>-10,08; 6,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 22,72</t>
+          <t>-8,03; 8,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 14,86</t>
+          <t>-3,85; 18,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 5,99</t>
+          <t>-17,02; 7,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 9,09</t>
+          <t>-3,03; 14,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 5,24</t>
+          <t>-10,19; 5,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 3,35</t>
+          <t>-11,67; 4,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 12,57</t>
+          <t>-0,11; 16,29</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 14,19</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 6,45</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 4,16</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-8,02; 3,43</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 14,9</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-7,82; 7,91</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-49,18%</t>
+          <t>-35,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-19,44%</t>
+          <t>-12,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>84,11%</t>
+          <t>-7,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>64,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,67%</t>
+          <t>-21,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,89%</t>
+          <t>37,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-3,65%</t>
+          <t>-11,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,67%</t>
+          <t>-25,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>76,73%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>32,63%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,26%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-11,67%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-17,41%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>70,6%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-1,91%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-78,71; 21,19</t>
+          <t>-71,42; 74,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-65,79; 72,04</t>
+          <t>-64,29; 78,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 260,53</t>
+          <t>-56,7; 110,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 150,63</t>
+          <t>-29,04; 258,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,82; 60,98</t>
+          <t>-60,15; 42,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,65; 88,71</t>
+          <t>-18,09; 135,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,71; 53,26</t>
+          <t>-50,45; 59,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,94; 32,38</t>
+          <t>-62,49; 42,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 110,95</t>
+          <t>-3,14; 228,18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-30,17; 152,15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-32,35; 61,59</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-43,59; 40,26</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-50,03; 33,64</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,56; 182,47</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-34,75; 54,24</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>16,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>8,29</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,36</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-4,14</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>12,8</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>6,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 13,51</t>
+          <t>-11,53; 12,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 10,34</t>
+          <t>-12,42; 11,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 15,46</t>
+          <t>-18,97; 5,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 8,62</t>
+          <t>4,85; 29,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 9,87</t>
+          <t>-5,36; 21,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 11,6</t>
+          <t>-10,76; 8,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 7,97</t>
+          <t>-7,7; 11,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 8,0</t>
+          <t>-13,34; 8,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 10,15</t>
+          <t>-2,79; 18,5</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,02; 14,91</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,13; 8,07</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-7,33; 7,94</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-12,62; 4,4</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 20,63</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 15,83</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>-3,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>-23,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,7%</t>
+          <t>83,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>-1,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>-5,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>29,18%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-14,79%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>53,66%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>21,81%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 71,81</t>
+          <t>-33,76; 68,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 53,44</t>
+          <t>-38,43; 53,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,99; 74,13</t>
+          <t>-56,79; 28,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 35,5</t>
+          <t>17,33; 205,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 39,01</t>
+          <t>-14,8; 95,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 42,55</t>
+          <t>-29,55; 32,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 34,21</t>
+          <t>-21,96; 45,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 34,58</t>
+          <t>-36,63; 33,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 43,58</t>
+          <t>-8,68; 79,02</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-18,35; 57,88</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-21,18; 33,72</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-22,72; 32,85</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-38,67; 18,92</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13,39; 102,48</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-5,42; 61,21</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>5,57</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-3,77</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,05</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 12,84</t>
+          <t>-5,2; 13,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 15,79</t>
+          <t>-3,42; 17,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 10,97</t>
+          <t>-5,29; 14,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 3,82</t>
+          <t>-9,75; 9,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 4,08</t>
+          <t>-7,32; 10,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 16,96</t>
+          <t>-9,14; 3,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 5,85</t>
+          <t>-7,86; 4,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 7,6</t>
+          <t>-6,62; 7,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 11,32</t>
+          <t>-1,22; 12,98</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-13,24; 3,7</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 6,16</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 8,05</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 7,41</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 8,68</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-7,31; 5,08</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-12,81%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,48%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>-12,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>-8,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>27,61%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-12,79%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11,56%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>8,06%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>14,06%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-4,53%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 88,41</t>
+          <t>-22,28; 80,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 100,71</t>
+          <t>-15,56; 110,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 72,3</t>
+          <t>-22,4; 86,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,25; 22,32</t>
+          <t>-34,26; 52,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,65; 24,37</t>
+          <t>-26,64; 55,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,72; 97,1</t>
+          <t>-39,09; 17,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 34,48</t>
+          <t>-33,1; 30,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 44,6</t>
+          <t>-27,9; 42,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 65,31</t>
+          <t>-5,42; 77,63</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-39,39; 15,22</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-20,6; 35,67</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-15,55; 47,1</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-19,14; 45,06</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-14,18; 44,84</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-25,64; 22,7</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,38</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,95</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,91</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10,52</t>
+          <t>10,87</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,1</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>7,76</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-3,73</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 9,42</t>
+          <t>-3,77; 10,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 6,63</t>
+          <t>-8,55; 6,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 21,48</t>
+          <t>-4,83; 9,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 4,46</t>
+          <t>-2,96; 12,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 1,14</t>
+          <t>-13,94; 4,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 16,74</t>
+          <t>-7,03; 4,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 5,17</t>
+          <t>-9,59; 2,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 1,97</t>
+          <t>-9,57; 1,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,57; 15,86</t>
+          <t>4,53; 18,3</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-11,29; 5,31</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 5,62</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-6,97; 2,34</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 4,02</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 12,59</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-10,4; 1,95</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>86,74%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-10,01%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-25,89%</t>
+          <t>-16,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>46,58%</t>
+          <t>-7,7%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>-21,35%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-15,19%</t>
+          <t>-22,06%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>62,6%</t>
+          <t>77,22%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-11,04%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-11,14%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-3,09%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>49,02%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-13,65%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,87; 87,58</t>
+          <t>-25,91; 93,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 63,57</t>
+          <t>-41,74; 56,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,68; 199,9</t>
+          <t>-26,83; 90,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 28,95</t>
+          <t>-16,13; 86,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,38; 8,08</t>
+          <t>-44,01; 23,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,44; 107,39</t>
+          <t>-34,96; 32,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 38,21</t>
+          <t>-45,43; 13,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,08; 15,36</t>
+          <t>-46,06; 11,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23,58; 113,94</t>
+          <t>25,01; 150,64</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-35,2; 21,1</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-22,79; 40,93</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-36,56; 17,44</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-28,43; 28,17</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>11,97; 91,68</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-33,91; 8,47</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12,79</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>9,92</t>
+          <t>4,31</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-2,05</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>8,11</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-1,47</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 8,2</t>
+          <t>-7,11; 9,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 7,97</t>
+          <t>-7,68; 8,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,91; 21,62</t>
+          <t>-9,19; 7,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 10,19</t>
+          <t>2,72; 20,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 6,96</t>
+          <t>-10,32; 9,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 15,0</t>
+          <t>-5,68; 9,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 6,5</t>
+          <t>-7,06; 8,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 5,4</t>
+          <t>-6,5; 10,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,45; 15,56</t>
+          <t>-5,44; 12,87</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-10,74; 6,28</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 7,38</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 6,15</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-5,79; 5,97</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>1,45; 13,94</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-8,02; 4,46</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>80,07%</t>
+          <t>-1,88%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>76,99%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>-3,41%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>38,16%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>56,62%</t>
+          <t>21,59%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-7,78%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>8,3%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>45,35%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-5,36%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,35; 69,0</t>
+          <t>-35,85; 71,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-39,12; 64,11</t>
+          <t>-38,07; 70,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,65; 169,97</t>
+          <t>-44,49; 60,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,78; 66,68</t>
+          <t>9,05; 162,5</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 46,31</t>
+          <t>-30,97; 35,34</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 100,91</t>
+          <t>-26,22; 60,35</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 45,64</t>
+          <t>-31,47; 54,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 37,49</t>
+          <t>-30,42; 67,7</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11,63; 100,91</t>
+          <t>-22,46; 86,1</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-34,22; 30,33</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-19,47; 47,27</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-25,31; 43,16</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-28,99; 41,29</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 94,86</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-25,7; 18,62</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>14,28</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>-3,69</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3,21</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>5,79</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2,29</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 12,43</t>
+          <t>-6,68; 12,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 17,34</t>
+          <t>-2,62; 17,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,0; 23,65</t>
+          <t>-3,91; 16,09</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 5,15</t>
+          <t>-4,69; 16,46</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 7,73</t>
+          <t>-12,48; 9,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 7,04</t>
+          <t>-12,46; 3,49</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 5,54</t>
+          <t>-8,03; 8,84</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 9,6</t>
+          <t>-4,37; 14,44</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 11,64</t>
+          <t>-14,09; 6,4</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 14,91</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-7,25; 5,27</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 9,8</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 12,84</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-6,77; 8,56</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-5,21; 9,87</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>42,69%</t>
+          <t>44,96%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>85,48%</t>
+          <t>43,18%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-13,75%</t>
+          <t>27,13%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>-5,44%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-12,9%</t>
+          <t>-16,91%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-2,46%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>-14,05%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>30,93%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-3,73%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>16,83%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>30,41%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>9,94%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-37,09; 102,15</t>
+          <t>-33,82; 98,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 137,24</t>
+          <t>-16,3; 150,41</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>11,91; 204,92</t>
+          <t>-22,8; 132,83</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-42,82; 36,54</t>
+          <t>-17,2; 88,46</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 49,22</t>
+          <t>-34,22; 36,6</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-47,27; 44,49</t>
+          <t>-46,92; 21,19</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 35,34</t>
+          <t>-32,21; 51,45</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 59,11</t>
+          <t>-19,37; 84,93</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 73,9</t>
+          <t>-44,21; 32,55</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-20,66; 119,95</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-32,6; 33,81</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-14,61; 60,88</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-6,9; 80,44</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-25,05; 42,23</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-19,57; 52,69</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>9,09</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
+          <t>7,4</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
           <t>-0,51</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>6,52</t>
+          <t>5,39</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>6,38</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,14</t>
+          <t>-2,08; 5,15</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 6,34</t>
+          <t>-1,91; 6,11</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,79; 13,18</t>
+          <t>-2,65; 5,29</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 2,58</t>
+          <t>3,45; 11,42</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 1,97</t>
+          <t>-4,45; 4,14</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,56; 7,72</t>
+          <t>-4,11; 2,52</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,72</t>
+          <t>-4,33; 2,24</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,74</t>
+          <t>-3,87; 3,16</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,44</t>
+          <t>1,51; 8,78</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 4,57</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 2,97</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 3,11</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 2,84</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>3,56; 9,14</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 2,87</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>51,42%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-6,48%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>-2,78%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>-4,75%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>-1,93%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>26,79%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>32,7%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 33,62</t>
+          <t>-10,91; 33,48</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 40,7</t>
+          <t>-9,64; 38,18</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>22,7; 83,3</t>
+          <t>-13,56; 34,13</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 13,75</t>
+          <t>16,54; 69,31</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 10,56</t>
+          <t>-15,38; 17,07</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2,25; 40,89</t>
+          <t>-18,15; 12,92</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 15,41</t>
+          <t>-18,92; 11,94</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 15,49</t>
+          <t>-17,22; 16,41</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>19,67; 53,21</t>
+          <t>6,61; 47,81</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-11,37; 19,97</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-9,23; 16,7</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-9,47; 17,23</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-10,22; 16,01</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>17,16; 50,44</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-10,32; 11,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
